--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tnfsf11-Tnfrsf11a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tnfsf11-Tnfrsf11a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,28 +76,28 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Tnfsf11</t>
   </si>
   <si>
     <t>Tnfrsf11a</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>1.409861</v>
+        <v>0.0794135</v>
       </c>
       <c r="H2">
-        <v>4.229583</v>
+        <v>0.158827</v>
       </c>
       <c r="I2">
-        <v>0.8996799439973785</v>
+        <v>0.04568877788049506</v>
       </c>
       <c r="J2">
-        <v>0.9308061179577465</v>
+        <v>0.03242712741837583</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.216812</v>
+        <v>1.642599</v>
       </c>
       <c r="N2">
-        <v>4.433624</v>
+        <v>3.285198</v>
       </c>
       <c r="O2">
-        <v>0.03478955304943803</v>
+        <v>0.02565660677902601</v>
       </c>
       <c r="P2">
-        <v>0.0236002455591832</v>
+        <v>0.01736186611445766</v>
       </c>
       <c r="Q2">
-        <v>3.125396783132</v>
+        <v>0.1304445356865</v>
       </c>
       <c r="R2">
-        <v>18.752380698792</v>
+        <v>0.521778142746</v>
       </c>
       <c r="S2">
-        <v>0.03129946313921224</v>
+        <v>0.001172219008294123</v>
       </c>
       <c r="T2">
-        <v>0.02196725295179286</v>
+        <v>0.0005629954447143004</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>1.409861</v>
+        <v>0.0794135</v>
       </c>
       <c r="H3">
-        <v>4.229583</v>
+        <v>0.158827</v>
       </c>
       <c r="I3">
-        <v>0.8996799439973785</v>
+        <v>0.04568877788049506</v>
       </c>
       <c r="J3">
-        <v>0.9308061179577465</v>
+        <v>0.03242712741837583</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>30.291975</v>
+        <v>29.92990366666667</v>
       </c>
       <c r="N3">
-        <v>90.875925</v>
+        <v>89.78971100000001</v>
       </c>
       <c r="O3">
-        <v>0.4753872999761597</v>
+        <v>0.4674907079024129</v>
       </c>
       <c r="P3">
-        <v>0.4837338812262643</v>
+        <v>0.4745275447135443</v>
       </c>
       <c r="Q3">
-        <v>42.707474165475</v>
+        <v>2.376838404832834</v>
       </c>
       <c r="R3">
-        <v>384.367267489275</v>
+        <v>14.261030428997</v>
       </c>
       <c r="S3">
-        <v>0.4276964194196163</v>
+        <v>0.02135907911454874</v>
       </c>
       <c r="T3">
-        <v>0.4502624561088527</v>
+        <v>0.01538756515595514</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>1.409861</v>
+        <v>0.0794135</v>
       </c>
       <c r="H4">
-        <v>4.229583</v>
+        <v>0.158827</v>
       </c>
       <c r="I4">
-        <v>0.8996799439973785</v>
+        <v>0.04568877788049506</v>
       </c>
       <c r="J4">
-        <v>0.9308061179577465</v>
+        <v>0.03242712741837583</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.0815885</v>
+        <v>1.2055955</v>
       </c>
       <c r="N4">
-        <v>2.163177</v>
+        <v>2.411191</v>
       </c>
       <c r="O4">
-        <v>0.01697391591998424</v>
+        <v>0.01883082217757544</v>
       </c>
       <c r="P4">
-        <v>0.01151462288817844</v>
+        <v>0.01274284695119907</v>
       </c>
       <c r="Q4">
-        <v>1.5248894441985</v>
+        <v>0.09574055823925</v>
       </c>
       <c r="R4">
-        <v>9.149336665191001</v>
+        <v>0.382962232957</v>
       </c>
       <c r="S4">
-        <v>0.01527109172430763</v>
+        <v>0.0008603572517783448</v>
       </c>
       <c r="T4">
-        <v>0.01071788143029278</v>
+        <v>0.0004132139217593942</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>1.409861</v>
+        <v>0.0794135</v>
       </c>
       <c r="H5">
-        <v>4.229583</v>
+        <v>0.158827</v>
       </c>
       <c r="I5">
-        <v>0.8996799439973785</v>
+        <v>0.04568877788049506</v>
       </c>
       <c r="J5">
-        <v>0.9308061179577465</v>
+        <v>0.03242712741837583</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.225528333333333</v>
+        <v>6.116353333333334</v>
       </c>
       <c r="N5">
-        <v>3.676585</v>
+        <v>18.34906</v>
       </c>
       <c r="O5">
-        <v>0.01923283659872347</v>
+        <v>0.09553449892208525</v>
       </c>
       <c r="P5">
-        <v>0.01957051586224036</v>
+        <v>0.0969725182610456</v>
       </c>
       <c r="Q5">
-        <v>1.727824601561667</v>
+        <v>0.4857210254366667</v>
       </c>
       <c r="R5">
-        <v>15.550421414055</v>
+        <v>2.91432615262</v>
       </c>
       <c r="S5">
-        <v>0.01730339735405026</v>
+        <v>0.004364854501175548</v>
       </c>
       <c r="T5">
-        <v>0.01821635589616245</v>
+        <v>0.003144540205731703</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>1.409861</v>
+        <v>0.0794135</v>
       </c>
       <c r="H6">
-        <v>4.229583</v>
+        <v>0.158827</v>
       </c>
       <c r="I6">
-        <v>0.8996799439973785</v>
+        <v>0.04568877788049506</v>
       </c>
       <c r="J6">
-        <v>0.9308061179577465</v>
+        <v>0.03242712741837583</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>28.90471933333333</v>
+        <v>25.12800533333333</v>
       </c>
       <c r="N6">
-        <v>86.714158</v>
+        <v>75.384016</v>
       </c>
       <c r="O6">
-        <v>0.4536163944556945</v>
+        <v>0.3924873642189005</v>
       </c>
       <c r="P6">
-        <v>0.4615807344641336</v>
+        <v>0.3983952239597534</v>
       </c>
       <c r="Q6">
-        <v>40.75163650401267</v>
+        <v>1.995502851538667</v>
       </c>
       <c r="R6">
-        <v>366.764728536114</v>
+        <v>11.973017109232</v>
       </c>
       <c r="S6">
-        <v>0.408109572360192</v>
+        <v>0.01793226800469831</v>
       </c>
       <c r="T6">
-        <v>0.4296421715706456</v>
+        <v>0.0129188126902153</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.1572085</v>
+        <v>1.409861</v>
       </c>
       <c r="H7">
-        <v>0.314417</v>
+        <v>4.229583</v>
       </c>
       <c r="I7">
-        <v>0.1003200560026214</v>
+        <v>0.8111319369045898</v>
       </c>
       <c r="J7">
-        <v>0.06919388204225353</v>
+        <v>0.8635384844365019</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.216812</v>
+        <v>1.642599</v>
       </c>
       <c r="N7">
-        <v>4.433624</v>
+        <v>3.285198</v>
       </c>
       <c r="O7">
-        <v>0.03478955304943803</v>
+        <v>0.02565660677902601</v>
       </c>
       <c r="P7">
-        <v>0.0236002455591832</v>
+        <v>0.01736186611445766</v>
       </c>
       <c r="Q7">
-        <v>0.348501689302</v>
+        <v>2.315836268739</v>
       </c>
       <c r="R7">
-        <v>1.394006757208</v>
+        <v>13.895017612434</v>
       </c>
       <c r="S7">
-        <v>0.003490089910225793</v>
+        <v>0.0208108931510708</v>
       </c>
       <c r="T7">
-        <v>0.00163299260739034</v>
+        <v>0.01499263955146823</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,31 +900,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.1572085</v>
+        <v>1.409861</v>
       </c>
       <c r="H8">
-        <v>0.314417</v>
+        <v>4.229583</v>
       </c>
       <c r="I8">
-        <v>0.1003200560026214</v>
+        <v>0.8111319369045898</v>
       </c>
       <c r="J8">
-        <v>0.06919388204225353</v>
+        <v>0.8635384844365019</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>30.291975</v>
+        <v>29.92990366666667</v>
       </c>
       <c r="N8">
-        <v>90.875925</v>
+        <v>89.78971100000001</v>
       </c>
       <c r="O8">
-        <v>0.4753872999761597</v>
+        <v>0.4674907079024129</v>
       </c>
       <c r="P8">
-        <v>0.4837338812262643</v>
+        <v>0.4745275447135443</v>
       </c>
       <c r="Q8">
-        <v>4.762155951787499</v>
+        <v>42.19700391339034</v>
       </c>
       <c r="R8">
-        <v>28.572935710725</v>
+        <v>379.773035220513</v>
       </c>
       <c r="S8">
-        <v>0.04769088055654334</v>
+        <v>0.379196643385782</v>
       </c>
       <c r="T8">
-        <v>0.03347142511741161</v>
+        <v>0.4097727967853085</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +962,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.1572085</v>
+        <v>1.409861</v>
       </c>
       <c r="H9">
-        <v>0.314417</v>
+        <v>4.229583</v>
       </c>
       <c r="I9">
-        <v>0.1003200560026214</v>
+        <v>0.8111319369045898</v>
       </c>
       <c r="J9">
-        <v>0.06919388204225353</v>
+        <v>0.8635384844365019</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.0815885</v>
+        <v>1.2055955</v>
       </c>
       <c r="N9">
-        <v>2.163177</v>
+        <v>2.411191</v>
       </c>
       <c r="O9">
-        <v>0.01697391591998424</v>
+        <v>0.01883082217757544</v>
       </c>
       <c r="P9">
-        <v>0.01151462288817844</v>
+        <v>0.01274284695119907</v>
       </c>
       <c r="Q9">
-        <v>0.17003490570225</v>
+        <v>1.6997220772255</v>
       </c>
       <c r="R9">
-        <v>0.6801396228090001</v>
+        <v>10.198332463353</v>
       </c>
       <c r="S9">
-        <v>0.001702824195676607</v>
+        <v>0.01527428126640268</v>
       </c>
       <c r="T9">
-        <v>0.0007967414578856514</v>
+        <v>0.01100393874364474</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,31 +1024,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.1572085</v>
+        <v>1.409861</v>
       </c>
       <c r="H10">
-        <v>0.314417</v>
+        <v>4.229583</v>
       </c>
       <c r="I10">
-        <v>0.1003200560026214</v>
+        <v>0.8111319369045898</v>
       </c>
       <c r="J10">
-        <v>0.06919388204225353</v>
+        <v>0.8635384844365019</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.225528333333333</v>
+        <v>6.116353333333334</v>
       </c>
       <c r="N10">
-        <v>3.676585</v>
+        <v>18.34906</v>
       </c>
       <c r="O10">
-        <v>0.01923283659872347</v>
+        <v>0.09553449892208525</v>
       </c>
       <c r="P10">
-        <v>0.01957051586224036</v>
+        <v>0.0969725182610456</v>
       </c>
       <c r="Q10">
-        <v>0.1926634709908333</v>
+        <v>8.623208026886667</v>
       </c>
       <c r="R10">
-        <v>1.155980825945</v>
+        <v>77.60887224198001</v>
       </c>
       <c r="S10">
-        <v>0.001929439244673206</v>
+        <v>0.07749108315188045</v>
       </c>
       <c r="T10">
-        <v>0.001354159966077911</v>
+        <v>0.08373950145113432</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,31 +1086,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.1572085</v>
+        <v>1.409861</v>
       </c>
       <c r="H11">
-        <v>0.314417</v>
+        <v>4.229583</v>
       </c>
       <c r="I11">
-        <v>0.1003200560026214</v>
+        <v>0.8111319369045898</v>
       </c>
       <c r="J11">
-        <v>0.06919388204225353</v>
+        <v>0.8635384844365019</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,648 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>28.90471933333333</v>
+        <v>25.12800533333333</v>
       </c>
       <c r="N11">
-        <v>86.714158</v>
+        <v>75.384016</v>
       </c>
       <c r="O11">
-        <v>0.4536163944556945</v>
+        <v>0.3924873642189005</v>
       </c>
       <c r="P11">
-        <v>0.4615807344641336</v>
+        <v>0.3983952239597534</v>
       </c>
       <c r="Q11">
-        <v>4.544067569314334</v>
+        <v>35.42699472725867</v>
       </c>
       <c r="R11">
-        <v>27.264405415886</v>
+        <v>318.842952545328</v>
       </c>
       <c r="S11">
-        <v>0.0455068220955025</v>
+        <v>0.3183590359494539</v>
       </c>
       <c r="T11">
-        <v>0.03193856289348801</v>
+        <v>0.3440296079049462</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.23704</v>
+      </c>
+      <c r="H12">
+        <v>0.47408</v>
+      </c>
+      <c r="I12">
+        <v>0.1363756528649732</v>
+      </c>
+      <c r="J12">
+        <v>0.09679117887074373</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.642599</v>
+      </c>
+      <c r="N12">
+        <v>3.285198</v>
+      </c>
+      <c r="O12">
+        <v>0.02565660677902601</v>
+      </c>
+      <c r="P12">
+        <v>0.01736186611445766</v>
+      </c>
+      <c r="Q12">
+        <v>0.38936166696</v>
+      </c>
+      <c r="R12">
+        <v>1.55744666784</v>
+      </c>
+      <c r="S12">
+        <v>0.003498936499789569</v>
+      </c>
+      <c r="T12">
+        <v>0.001680475488614376</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.23704</v>
+      </c>
+      <c r="H13">
+        <v>0.47408</v>
+      </c>
+      <c r="I13">
+        <v>0.1363756528649732</v>
+      </c>
+      <c r="J13">
+        <v>0.09679117887074373</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>29.92990366666667</v>
+      </c>
+      <c r="N13">
+        <v>89.78971100000001</v>
+      </c>
+      <c r="O13">
+        <v>0.4674907079024129</v>
+      </c>
+      <c r="P13">
+        <v>0.4745275447135443</v>
+      </c>
+      <c r="Q13">
+        <v>7.094584365146668</v>
+      </c>
+      <c r="R13">
+        <v>42.56750619088</v>
+      </c>
+      <c r="S13">
+        <v>0.06375435049850003</v>
+      </c>
+      <c r="T13">
+        <v>0.04593008045946351</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.23704</v>
+      </c>
+      <c r="H14">
+        <v>0.47408</v>
+      </c>
+      <c r="I14">
+        <v>0.1363756528649732</v>
+      </c>
+      <c r="J14">
+        <v>0.09679117887074373</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.2055955</v>
+      </c>
+      <c r="N14">
+        <v>2.411191</v>
+      </c>
+      <c r="O14">
+        <v>0.01883082217757544</v>
+      </c>
+      <c r="P14">
+        <v>0.01274284695119907</v>
+      </c>
+      <c r="Q14">
+        <v>0.28577435732</v>
+      </c>
+      <c r="R14">
+        <v>1.14309742928</v>
+      </c>
+      <c r="S14">
+        <v>0.002568065668451068</v>
+      </c>
+      <c r="T14">
+        <v>0.00123339517857602</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.23704</v>
+      </c>
+      <c r="H15">
+        <v>0.47408</v>
+      </c>
+      <c r="I15">
+        <v>0.1363756528649732</v>
+      </c>
+      <c r="J15">
+        <v>0.09679117887074373</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>6.116353333333334</v>
+      </c>
+      <c r="N15">
+        <v>18.34906</v>
+      </c>
+      <c r="O15">
+        <v>0.09553449892208525</v>
+      </c>
+      <c r="P15">
+        <v>0.0969725182610456</v>
+      </c>
+      <c r="Q15">
+        <v>1.449820394133333</v>
+      </c>
+      <c r="R15">
+        <v>8.698922364800001</v>
+      </c>
+      <c r="S15">
+        <v>0.01302857966162745</v>
+      </c>
+      <c r="T15">
+        <v>0.009386084360551328</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.23704</v>
+      </c>
+      <c r="H16">
+        <v>0.47408</v>
+      </c>
+      <c r="I16">
+        <v>0.1363756528649732</v>
+      </c>
+      <c r="J16">
+        <v>0.09679117887074373</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>25.12800533333333</v>
+      </c>
+      <c r="N16">
+        <v>75.384016</v>
+      </c>
+      <c r="O16">
+        <v>0.3924873642189005</v>
+      </c>
+      <c r="P16">
+        <v>0.3983952239597534</v>
+      </c>
+      <c r="Q16">
+        <v>5.956342384213333</v>
+      </c>
+      <c r="R16">
+        <v>35.73805430528</v>
+      </c>
+      <c r="S16">
+        <v>0.05352572053660507</v>
+      </c>
+      <c r="T16">
+        <v>0.0385611433835385</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.01182566666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.035477</v>
+      </c>
+      <c r="I17">
+        <v>0.006803632349941858</v>
+      </c>
+      <c r="J17">
+        <v>0.007243209274378534</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.642599</v>
+      </c>
+      <c r="N17">
+        <v>3.285198</v>
+      </c>
+      <c r="O17">
+        <v>0.02565660677902601</v>
+      </c>
+      <c r="P17">
+        <v>0.01736186611445766</v>
+      </c>
+      <c r="Q17">
+        <v>0.019424828241</v>
+      </c>
+      <c r="R17">
+        <v>0.116548969446</v>
+      </c>
+      <c r="S17">
+        <v>0.0001745581198715189</v>
+      </c>
+      <c r="T17">
+        <v>0.0001257556296607581</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.01182566666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.035477</v>
+      </c>
+      <c r="I18">
+        <v>0.006803632349941858</v>
+      </c>
+      <c r="J18">
+        <v>0.007243209274378534</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>29.92990366666667</v>
+      </c>
+      <c r="N18">
+        <v>89.78971100000001</v>
+      </c>
+      <c r="O18">
+        <v>0.4674907079024129</v>
+      </c>
+      <c r="P18">
+        <v>0.4745275447135443</v>
+      </c>
+      <c r="Q18">
+        <v>0.3539410641274445</v>
+      </c>
+      <c r="R18">
+        <v>3.185469577147001</v>
+      </c>
+      <c r="S18">
+        <v>0.003180634903582076</v>
+      </c>
+      <c r="T18">
+        <v>0.003437102312817219</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.01182566666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.035477</v>
+      </c>
+      <c r="I19">
+        <v>0.006803632349941858</v>
+      </c>
+      <c r="J19">
+        <v>0.007243209274378534</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.2055955</v>
+      </c>
+      <c r="N19">
+        <v>2.411191</v>
+      </c>
+      <c r="O19">
+        <v>0.01883082217757544</v>
+      </c>
+      <c r="P19">
+        <v>0.01274284695119907</v>
+      </c>
+      <c r="Q19">
+        <v>0.01425697051783333</v>
+      </c>
+      <c r="R19">
+        <v>0.08554182310700001</v>
+      </c>
+      <c r="S19">
+        <v>0.0001281179909433549</v>
+      </c>
+      <c r="T19">
+        <v>9.229910721891133E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.01182566666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.035477</v>
+      </c>
+      <c r="I20">
+        <v>0.006803632349941858</v>
+      </c>
+      <c r="J20">
+        <v>0.007243209274378534</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>6.116353333333334</v>
+      </c>
+      <c r="N20">
+        <v>18.34906</v>
+      </c>
+      <c r="O20">
+        <v>0.09553449892208525</v>
+      </c>
+      <c r="P20">
+        <v>0.0969725182610456</v>
+      </c>
+      <c r="Q20">
+        <v>0.07232995573555556</v>
+      </c>
+      <c r="R20">
+        <v>0.6509696016200001</v>
+      </c>
+      <c r="S20">
+        <v>0.0006499816074017848</v>
+      </c>
+      <c r="T20">
+        <v>0.0007023922436282473</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.01182566666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.035477</v>
+      </c>
+      <c r="I21">
+        <v>0.006803632349941858</v>
+      </c>
+      <c r="J21">
+        <v>0.007243209274378534</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>25.12800533333333</v>
+      </c>
+      <c r="N21">
+        <v>75.384016</v>
+      </c>
+      <c r="O21">
+        <v>0.3924873642189005</v>
+      </c>
+      <c r="P21">
+        <v>0.3983952239597534</v>
+      </c>
+      <c r="Q21">
+        <v>0.2971554150702223</v>
+      </c>
+      <c r="R21">
+        <v>2.674398735632</v>
+      </c>
+      <c r="S21">
+        <v>0.002670339728143124</v>
+      </c>
+      <c r="T21">
+        <v>0.002885659981053399</v>
       </c>
     </row>
   </sheetData>
